--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\fuels\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2663,7 +2663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3875,7 +3875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4448,7 +4450,8 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="M8" s="31">
-        <v>0</v>
+        <f>L8</f>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="N8" s="31">
         <v>0</v>
@@ -38036,7 +38039,7 @@
       </c>
       <c r="E6" s="34">
         <f>'Subsidies Paid'!M8*About!$A$70*1000</f>
-        <v>0</v>
+        <v>8.9331999999999994</v>
       </c>
       <c r="F6" s="34">
         <f>'Subsidies Paid'!N8*About!$A$70*1000</f>
@@ -38954,7 +38957,7 @@
       </c>
       <c r="E14" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.9331999999999994</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="1"/>
